--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,81 +14,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>食人花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value#{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可移动平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:10;shakeTime:10;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:36;interval:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带刺儿风车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球型旋转四方向飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩几下就会消失的台儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人花2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花儿飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右移动飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:5,posLeft:-5,posRight:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树根飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:45/-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平伸缩门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直伸缩门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食人花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value#{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可移动平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:10;shakeTime:10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锥型子弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:36;interval:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带刺儿风车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伸缩门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger:</t>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,16 +490,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -455,27 +507,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -483,10 +535,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -494,10 +546,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -505,31 +557,124 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旋转荆条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:45/-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水平伸缩门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -141,14 +133,29 @@
   </si>
   <si>
     <t>预制名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed:-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条2</t>
+  </si>
+  <si>
+    <t>speed:45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,10 +285,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,34 +494,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -527,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -541,7 +547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -552,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -563,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -571,7 +577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -582,15 +588,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -601,7 +607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -612,7 +618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -623,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -631,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -642,7 +648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -650,31 +656,42 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食人花2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scope:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,6 +140,58 @@
   </si>
   <si>
     <t>speed:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4左侧可移动道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4右侧固定道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被铁球压下去的台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣着草莓的罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以中心为轴点装石头的七巧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶住石头的伸缩支点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上升的两层梯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡22向下掉落的木棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动攻击刺猬的食人花</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,12 +215,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,8 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,15 +547,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -513,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -533,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -563,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -593,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -618,15 +669,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:4" s="1" customFormat="1">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -634,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -642,10 +693,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -653,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -661,10 +712,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -672,10 +723,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -683,15 +734,103 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\unity2d-demo\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5280" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,22 +41,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value#{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可移动平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed:10;shakeTime:10;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:36;interval:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拳头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,34 +53,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>球型旋转四方向飞镖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed:36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>踩几下就会消失的台儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>times:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花儿飞镖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>speed:5,posLeft:-5,posRight:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>树根飞镖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,14 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预制名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed:-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旋转荆条1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +100,6 @@
     <t>旋转荆条2</t>
   </si>
   <si>
-    <t>speed:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>旋转木条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,14 +149,38 @@
   </si>
   <si>
     <t>主动攻击刺猬的食人花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:延迟时间,1:移动速度，2:移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +317,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +352,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,292 +528,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="32.625" customWidth="1"/>
-    <col min="3" max="3" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="32.625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>1110</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>43</v>
+      <c r="C29" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="6960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8640" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_4</t>
+  </si>
+  <si>
+    <t>0:旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平伸缩门</t>
+  </si>
+  <si>
+    <t>0:平台静止秒数，1：移动速度，2:移动距离,3:中间平台踩后几秒消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,6 +258,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>136057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="1164757"/>
+          <a:ext cx="371475" cy="258732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,17 +591,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -620,185 +681,202 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>5</v>
+        <v>1410</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>6</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -806,5 +884,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10320" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
     <t>水平伸缩门</t>
   </si>
   <si>
-    <t>0:平台静止秒数，1：移动速度，2:移动距离,3:中间平台踩后几秒消失</t>
+    <t>0:平台静止秒数，1：移动速度，2:移动距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>踩几下就会消失的台儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花儿飞镖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,120 +73,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>垂直伸缩门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条2</t>
+  </si>
+  <si>
+    <t>旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4左侧可移动道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4右侧固定道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被铁球压下去的台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣着草莓的罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以中心为轴点装石头的七巧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶住石头的伸缩支点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上升的两层梯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡22向下掉落的木棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动攻击刺猬的食人花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:延迟时间,1:移动速度，2:移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_4</t>
+  </si>
+  <si>
+    <t>0:旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>水平伸缩门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直伸缩门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转荆条1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转荆条2</t>
-  </si>
-  <si>
-    <t>旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4左侧可移动道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4右侧固定道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上端为轴心的绿色旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下端为轴心的绿色旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被铁球压下去的台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣着草莓的罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以中心为轴点装石头的七巧板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶住石头的伸缩支点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形的石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以上升的两层梯子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡22向下掉落的木棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动攻击刺猬的食人花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:延迟时间,1:移动速度，2:移动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_4</t>
-  </si>
-  <si>
-    <t>0:旋转速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水平伸缩门</t>
   </si>
   <si>
     <t>0:平台静止秒数，1：移动速度，2:移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩一下就会消失的台儿</t>
+  </si>
+  <si>
+    <t>Hurt_1_4_2</t>
+  </si>
+  <si>
+    <t>0:台子消失延迟秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_5</t>
+  </si>
+  <si>
+    <t>0:角速度，1：暗器发射间隔，暗器速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,49 +267,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>136057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51889</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="704850" y="1164757"/>
-          <a:ext cx="371475" cy="258732"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,16 +557,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="65.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -609,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -626,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -650,17 +616,14 @@
       <c r="A4">
         <v>1110</v>
       </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -668,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -687,66 +650,84 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1510</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>6</v>
+        <v>1710</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>7</v>
+        <v>1610</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B11"/>
       <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -754,136 +735,127 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12000" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     <t>Hurt_1_5</t>
   </si>
   <si>
-    <t>0:角速度，1：暗器发射间隔，暗器速度。</t>
+    <t>0:旋转速度，1：暗器发射频率，2：暗器速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +557,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,158 +698,158 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11"/>
-      <c r="C11" t="s">
+      <c r="B12"/>
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
+      <c r="D12"/>
+      <c r="E12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13680" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,145 +61,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>左右移动飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树根飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直伸缩门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转荆条2</t>
+  </si>
+  <si>
+    <t>旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4左侧可移动道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景4右侧固定道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下端为轴心的绿色旋转木条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被铁球压下去的台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扣着草莓的罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以中心为轴点装石头的七巧板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶住石头的伸缩支点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以上升的两层梯子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡22向下掉落的木棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动攻击刺猬的食人花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:延迟时间,1:移动速度，2:移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_4</t>
+  </si>
+  <si>
+    <t>0:旋转速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平伸缩门</t>
+  </si>
+  <si>
+    <t>0:平台静止秒数，1：移动速度，2:移动距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩一下就会消失的台儿</t>
+  </si>
+  <si>
+    <t>Hurt_1_4_2</t>
+  </si>
+  <si>
+    <t>0:台子消失延迟秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_5</t>
+  </si>
+  <si>
+    <t>0:旋转速度，1：暗器发射频率，2：暗器速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩一下就会消失的桥1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩一下就会消失的桥2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hurt_1_6_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:消失延迟秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>飞镖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左右移动飞镖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树根飞镖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直伸缩门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转荆条1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旋转荆条2</t>
-  </si>
-  <si>
-    <t>旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4左侧可移动道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景4右侧固定道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上端为轴心的绿色旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下端为轴心的绿色旋转木条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被铁球压下去的台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扣着草莓的罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以中心为轴点装石头的七巧板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶住石头的伸缩支点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形的石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以上升的两层梯子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡22向下掉落的木棍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动攻击刺猬的食人花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value#[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:延迟时间,1:移动速度，2:移动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_4</t>
-  </si>
-  <si>
-    <t>0:旋转速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水平伸缩门</t>
-  </si>
-  <si>
-    <t>0:平台静止秒数，1：移动速度，2:移动距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>踩一下就会消失的台儿</t>
-  </si>
-  <si>
-    <t>Hurt_1_4_2</t>
-  </si>
-  <si>
-    <t>0:台子消失延迟秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hurt_1_5</t>
-  </si>
-  <si>
-    <t>0:旋转速度，1：暗器发射频率，2：暗器速度。</t>
+    <t>0：暗器发射频率，1：暗器速度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,13 +603,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -592,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -620,18 +648,24 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>3</v>
+        <v>1310</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -650,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -661,13 +695,13 @@
         <v>1510</v>
       </c>
       <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -675,13 +709,13 @@
         <v>1710</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -692,165 +726,193 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1210</v>
+      </c>
+      <c r="C11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
+        <v>1211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="B12"/>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10</v>
-      </c>
+      <c r="B13"/>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
-        <v>29</v>
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/机关数据表格.xlsx
+++ b/Docs/机关数据表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,15 +219,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞镖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0：暗器发射频率，1：暗器速度。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞镖5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowerGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：暗器发射频率，1：暗器速度,2延迟。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：暗器发射频率，1：暗器速度,3延迟。</t>
+  </si>
+  <si>
+    <t>0：暗器发射频率，1：暗器速度,4延迟。</t>
+  </si>
+  <si>
+    <t>0：暗器发射频率，1：暗器速度,5延迟。</t>
+  </si>
+  <si>
+    <t>Hurt_FlowerAttack</t>
+  </si>
+  <si>
+    <t>0：攻击频率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,16 +625,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -634,10 +674,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1</v>
+        <v>1010</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -659,259 +705,315 @@
         <v>1310</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>4</v>
+        <v>1311</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1410</v>
+        <v>1312</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1510</v>
+        <v>1313</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1710</v>
+        <v>1314</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1610</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1210</v>
+        <v>1410</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1211</v>
+        <v>1510</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13"/>
+        <v>1710</v>
+      </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>10</v>
+        <v>1610</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>11</v>
+        <v>1210</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
+        <v>1211</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>15</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>21</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>22</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>23</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>25</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>26</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>27</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>28</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>28</v>
       </c>
     </row>
